--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1969683333333333</v>
+        <v>0.1200053333333333</v>
       </c>
       <c r="H2">
-        <v>0.590905</v>
+        <v>0.360016</v>
       </c>
       <c r="I2">
-        <v>0.02657338015617136</v>
+        <v>0.01599335985210709</v>
       </c>
       <c r="J2">
-        <v>0.02956785610438461</v>
+        <v>0.01792002013324337</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N2">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O2">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P2">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q2">
-        <v>38.77297821629556</v>
+        <v>19.52756825335111</v>
       </c>
       <c r="R2">
-        <v>348.95680394666</v>
+        <v>175.74811428016</v>
       </c>
       <c r="S2">
-        <v>0.01567320604656633</v>
+        <v>0.008366826973495205</v>
       </c>
       <c r="T2">
-        <v>0.01751550717428142</v>
+        <v>0.009403919489175546</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1969683333333333</v>
+        <v>0.1200053333333333</v>
       </c>
       <c r="H3">
-        <v>0.590905</v>
+        <v>0.360016</v>
       </c>
       <c r="I3">
-        <v>0.02657338015617136</v>
+        <v>0.01599335985210709</v>
       </c>
       <c r="J3">
-        <v>0.02956785610438461</v>
+        <v>0.01792002013324337</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.869893</v>
       </c>
       <c r="O3">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P3">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q3">
-        <v>0.05711379146277777</v>
+        <v>0.03479726647644445</v>
       </c>
       <c r="R3">
-        <v>0.514024123165</v>
+        <v>0.313175398288</v>
       </c>
       <c r="S3">
-        <v>2.308711537976517E-05</v>
+        <v>1.490931712447365E-05</v>
       </c>
       <c r="T3">
-        <v>2.580088170003554E-05</v>
+        <v>1.675737030552768E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1969683333333333</v>
+        <v>0.1200053333333333</v>
       </c>
       <c r="H4">
-        <v>0.590905</v>
+        <v>0.360016</v>
       </c>
       <c r="I4">
-        <v>0.02657338015617136</v>
+        <v>0.01599335985210709</v>
       </c>
       <c r="J4">
-        <v>0.02956785610438461</v>
+        <v>0.01792002013324337</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N4">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O4">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P4">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q4">
-        <v>10.76074010811333</v>
+        <v>7.390006910154668</v>
       </c>
       <c r="R4">
-        <v>96.84666097302001</v>
+        <v>66.510062191392</v>
       </c>
       <c r="S4">
-        <v>0.004349815378822978</v>
+        <v>0.003166339420659163</v>
       </c>
       <c r="T4">
-        <v>0.004861112796463552</v>
+        <v>0.003558816392595091</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1969683333333333</v>
+        <v>0.1200053333333333</v>
       </c>
       <c r="H5">
-        <v>0.590905</v>
+        <v>0.360016</v>
       </c>
       <c r="I5">
-        <v>0.02657338015617136</v>
+        <v>0.01599335985210709</v>
       </c>
       <c r="J5">
-        <v>0.02956785610438461</v>
+        <v>0.01792002013324337</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N5">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O5">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P5">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q5">
-        <v>0.8572225350383333</v>
+        <v>0.3473823785306667</v>
       </c>
       <c r="R5">
-        <v>5.143335210230001</v>
+        <v>2.084294271184</v>
       </c>
       <c r="S5">
-        <v>0.0003465151772573681</v>
+        <v>0.0001488402558423281</v>
       </c>
       <c r="T5">
-        <v>0.0002581641158895078</v>
+        <v>0.000111526292035879</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1969683333333333</v>
+        <v>0.1200053333333333</v>
       </c>
       <c r="H6">
-        <v>0.590905</v>
+        <v>0.360016</v>
       </c>
       <c r="I6">
-        <v>0.02657338015617136</v>
+        <v>0.01599335985210709</v>
       </c>
       <c r="J6">
-        <v>0.02956785610438461</v>
+        <v>0.01792002013324337</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N6">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O6">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P6">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q6">
-        <v>15.29019232085722</v>
+        <v>10.02758889081067</v>
       </c>
       <c r="R6">
-        <v>137.611730887715</v>
+        <v>90.248300017296</v>
       </c>
       <c r="S6">
-        <v>0.00618075643814492</v>
+        <v>0.00429644388498592</v>
       </c>
       <c r="T6">
-        <v>0.006907271136050093</v>
+        <v>0.004829000589131323</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>14.889768</v>
       </c>
       <c r="I7">
-        <v>0.6696025004039489</v>
+        <v>0.6614634286764723</v>
       </c>
       <c r="J7">
-        <v>0.7450580341199864</v>
+        <v>0.7411474555000968</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N7">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O7">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P7">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q7">
-        <v>977.0109413690774</v>
+        <v>807.6334410041867</v>
       </c>
       <c r="R7">
-        <v>8793.098472321697</v>
+        <v>7268.700969037681</v>
       </c>
       <c r="S7">
-        <v>0.3949372603879978</v>
+        <v>0.3460404885657464</v>
       </c>
       <c r="T7">
-        <v>0.4413600125695092</v>
+        <v>0.3889332126475001</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>14.889768</v>
       </c>
       <c r="I8">
-        <v>0.6696025004039489</v>
+        <v>0.6614634286764723</v>
       </c>
       <c r="J8">
-        <v>0.7450580341199864</v>
+        <v>0.7411474555000968</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.869893</v>
       </c>
       <c r="O8">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P8">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q8">
         <v>1.439167217202667</v>
@@ -948,10 +948,10 @@
         <v>12.952504954824</v>
       </c>
       <c r="S8">
-        <v>0.0005817547521072512</v>
+        <v>0.0006166289082203009</v>
       </c>
       <c r="T8">
-        <v>0.0006501368963013934</v>
+        <v>0.0006930618531937364</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>14.889768</v>
       </c>
       <c r="I9">
-        <v>0.6696025004039489</v>
+        <v>0.6614634286764723</v>
       </c>
       <c r="J9">
-        <v>0.7450580341199864</v>
+        <v>0.7411474555000968</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N9">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O9">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P9">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q9">
-        <v>271.1517481119681</v>
+        <v>305.640550449424</v>
       </c>
       <c r="R9">
-        <v>2440.365733007713</v>
+        <v>2750.764954044816</v>
       </c>
       <c r="S9">
-        <v>0.1096077065408251</v>
+        <v>0.130955455821045</v>
       </c>
       <c r="T9">
-        <v>0.1224915033062396</v>
+        <v>0.1471877651002673</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>14.889768</v>
       </c>
       <c r="I10">
-        <v>0.6696025004039489</v>
+        <v>0.6614634286764723</v>
       </c>
       <c r="J10">
-        <v>0.7450580341199864</v>
+        <v>0.7411474555000968</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N10">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O10">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P10">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q10">
-        <v>21.600502062248</v>
+        <v>14.367258742972</v>
       </c>
       <c r="R10">
-        <v>129.603012373488</v>
+        <v>86.20355245783202</v>
       </c>
       <c r="S10">
-        <v>0.008731573768780239</v>
+        <v>0.006155828848031504</v>
       </c>
       <c r="T10">
-        <v>0.006505282222218267</v>
+        <v>0.004612574480896644</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>14.889768</v>
       </c>
       <c r="I11">
-        <v>0.6696025004039489</v>
+        <v>0.6614634286764723</v>
       </c>
       <c r="J11">
-        <v>0.7450580341199864</v>
+        <v>0.7411474555000968</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N11">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O11">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P11">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q11">
-        <v>385.2859873125894</v>
+        <v>414.727323739912</v>
       </c>
       <c r="R11">
-        <v>3467.573885813305</v>
+        <v>3732.545913659209</v>
       </c>
       <c r="S11">
-        <v>0.1557442049542384</v>
+        <v>0.1776950265334292</v>
       </c>
       <c r="T11">
-        <v>0.1740510991257179</v>
+        <v>0.199720841418239</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.252018</v>
+        <v>2.420186</v>
       </c>
       <c r="H12">
-        <v>4.504036</v>
+        <v>4.840372</v>
       </c>
       <c r="I12">
-        <v>0.3038241194398798</v>
+        <v>0.3225432114714206</v>
       </c>
       <c r="J12">
-        <v>0.2253741097756289</v>
+        <v>0.24093252436666</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N12">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O12">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P12">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q12">
-        <v>443.3070198595653</v>
+        <v>393.8187244522867</v>
       </c>
       <c r="R12">
-        <v>2659.842119157392</v>
+        <v>2362.91234671372</v>
       </c>
       <c r="S12">
-        <v>0.1791980545159182</v>
+        <v>0.1687364798148593</v>
       </c>
       <c r="T12">
-        <v>0.1335078817597106</v>
+        <v>0.1264345712014456</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.252018</v>
+        <v>2.420186</v>
       </c>
       <c r="H13">
-        <v>4.504036</v>
+        <v>4.840372</v>
       </c>
       <c r="I13">
-        <v>0.3038241194398798</v>
+        <v>0.3225432114714206</v>
       </c>
       <c r="J13">
-        <v>0.2253741097756289</v>
+        <v>0.24093252436666</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.869893</v>
       </c>
       <c r="O13">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P13">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q13">
-        <v>0.6530048980246667</v>
+        <v>0.7017676200326667</v>
       </c>
       <c r="R13">
-        <v>3.918029388148</v>
+        <v>4.210605720196001</v>
       </c>
       <c r="S13">
-        <v>0.000263964255184715</v>
+        <v>0.0003006809745195608</v>
       </c>
       <c r="T13">
-        <v>0.0001966612230539618</v>
+        <v>0.0002253008366864462</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.252018</v>
+        <v>2.420186</v>
       </c>
       <c r="H14">
-        <v>4.504036</v>
+        <v>4.840372</v>
       </c>
       <c r="I14">
-        <v>0.3038241194398798</v>
+        <v>0.3225432114714206</v>
       </c>
       <c r="J14">
-        <v>0.2253741097756289</v>
+        <v>0.24093252436666</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N14">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O14">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P14">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q14">
-        <v>123.031860028904</v>
+        <v>149.036636681644</v>
       </c>
       <c r="R14">
-        <v>738.1911601734241</v>
+        <v>894.219820089864</v>
       </c>
       <c r="S14">
-        <v>0.04973318484250175</v>
+        <v>0.06385658140577712</v>
       </c>
       <c r="T14">
-        <v>0.0370527022708092</v>
+        <v>0.04784786015026634</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.252018</v>
+        <v>2.420186</v>
       </c>
       <c r="H15">
-        <v>4.504036</v>
+        <v>4.840372</v>
       </c>
       <c r="I15">
-        <v>0.3038241194398798</v>
+        <v>0.3225432114714206</v>
       </c>
       <c r="J15">
-        <v>0.2253741097756289</v>
+        <v>0.24093252436666</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N15">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O15">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P15">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q15">
-        <v>9.800969253494001</v>
+        <v>7.005771708757001</v>
       </c>
       <c r="R15">
-        <v>39.203877013976</v>
+        <v>28.023086835028</v>
       </c>
       <c r="S15">
-        <v>0.003961847080952692</v>
+        <v>0.003001709119255983</v>
       </c>
       <c r="T15">
-        <v>0.001967795960221212</v>
+        <v>0.001499457638644648</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.252018</v>
+        <v>2.420186</v>
       </c>
       <c r="H16">
-        <v>4.504036</v>
+        <v>4.840372</v>
       </c>
       <c r="I16">
-        <v>0.3038241194398798</v>
+        <v>0.3225432114714206</v>
       </c>
       <c r="J16">
-        <v>0.2253741097756289</v>
+        <v>0.24093252436666</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N16">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O16">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P16">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q16">
-        <v>174.8189048833514</v>
+        <v>202.229597412022</v>
       </c>
       <c r="R16">
-        <v>1048.913429300108</v>
+        <v>1213.377584472132</v>
       </c>
       <c r="S16">
-        <v>0.07066706874532241</v>
+        <v>0.08664776015700858</v>
       </c>
       <c r="T16">
-        <v>0.052649068561834</v>
+        <v>0.06492533453961702</v>
       </c>
     </row>
   </sheetData>
